--- a/tacc_tests/tacc_timing_calculations (pustejovsky@wisc.edu).xlsx
+++ b/tacc_tests/tacc_timing_calculations (pustejovsky@wisc.edu).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16005"/>
+    <workbookView xWindow="0" yWindow="470" windowWidth="28800" windowHeight="16010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>N</t>
   </si>
@@ -63,12 +63,24 @@
   </si>
   <si>
     <t>total_sus</t>
+  </si>
+  <si>
+    <t>Target reps</t>
+  </si>
+  <si>
+    <t>Total jobs</t>
+  </si>
+  <si>
+    <t>Max jobs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -98,9 +110,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,20 +394,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.7265625" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -417,7 +431,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -426,28 +440,32 @@
         <v>68</v>
       </c>
       <c r="C2" s="1">
-        <f t="shared" ref="C2:C7" si="0">$C$11/B2</f>
+        <f t="shared" ref="C2:C9" si="0">$C$13/B2</f>
         <v>7.7647058823529411</v>
       </c>
       <c r="D2">
         <f>ROUNDUP(C2,0)</f>
         <v>8</v>
       </c>
-      <c r="E2">
-        <f t="shared" ref="E2:E7" si="1">D2*$C$14</f>
+      <c r="E2" s="2">
+        <f t="shared" ref="E2:E9" si="1">D2*$C$16</f>
         <v>72.317866666666674</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <f>E2*A2</f>
         <v>72.317866666666674</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G2" s="2">
+        <f>F2*$C$22</f>
+        <v>506.22506666666675</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B7" si="2">A3*68</f>
+        <f t="shared" ref="B3:B9" si="2">A3*68</f>
         <v>136</v>
       </c>
       <c r="C3" s="1">
@@ -455,19 +473,23 @@
         <v>3.8823529411764706</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D7" si="3">ROUNDUP(C3,0)</f>
+        <f t="shared" ref="D3:D9" si="3">ROUNDUP(C3,0)</f>
         <v>4</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <f t="shared" si="1"/>
         <v>36.158933333333337</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F7" si="4">E3*A3</f>
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F9" si="4">E3*A3</f>
         <v>72.317866666666674</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G3" s="2">
+        <f t="shared" ref="G3:G9" si="5">F3*$C$22</f>
+        <v>506.22506666666675</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -483,16 +505,20 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <f t="shared" si="1"/>
         <v>27.119200000000003</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <f t="shared" si="4"/>
         <v>81.357600000000005</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G4" s="2">
+        <f t="shared" si="5"/>
+        <v>569.50319999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -508,20 +534,20 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <f t="shared" si="1"/>
         <v>18.079466666666669</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <f t="shared" si="4"/>
         <v>72.317866666666674</v>
       </c>
-      <c r="G5">
-        <f>F5*((1000/50)/3)</f>
-        <v>482.11911111111118</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G5" s="2">
+        <f t="shared" si="5"/>
+        <v>506.22506666666675</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -537,16 +563,20 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <f t="shared" si="1"/>
         <v>18.079466666666669</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <f t="shared" si="4"/>
         <v>90.397333333333336</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6" s="2">
+        <f t="shared" si="5"/>
+        <v>632.78133333333335</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -562,65 +592,153 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <f t="shared" si="1"/>
         <v>18.079466666666669</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <f t="shared" si="4"/>
         <v>108.47680000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="G7" s="2">
+        <f t="shared" si="5"/>
+        <v>759.33760000000007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="2"/>
+        <v>476</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1092436974789917</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="C10">
+      <c r="E8" s="2">
+        <f t="shared" si="1"/>
+        <v>18.079466666666669</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="4"/>
+        <v>126.55626666666669</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="5"/>
+        <v>885.89386666666678</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="2"/>
+        <v>544</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.97058823529411764</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="1"/>
+        <v>9.0397333333333343</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="4"/>
+        <v>72.317866666666674</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="5"/>
+        <v>506.22506666666675</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="C11">
-        <f>176*C10</f>
+      <c r="C13">
+        <f>176*C12</f>
         <v>528</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>6</v>
       </c>
-      <c r="C12">
+      <c r="C14">
         <f>65086.08 / 2 / 50 / 60^2</f>
         <v>0.18079466666666669</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>9</v>
       </c>
-      <c r="C13">
+      <c r="C15">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>5</v>
       </c>
-      <c r="C14">
-        <f>C13*C12</f>
+      <c r="C16">
+        <f>C15*C14</f>
         <v>9.0397333333333343</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>10</v>
       </c>
-      <c r="C16">
-        <f>C13*C10</f>
+      <c r="C20">
+        <f>C15*C12</f>
         <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21">
+        <f>C19/C20</f>
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22">
+        <f>ROUNDUP(C21,0)</f>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
